--- a/Tests_xlsx/Algorithms.xlsx
+++ b/Tests_xlsx/Algorithms.xlsx
@@ -4,21 +4,118 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="15090"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+  <si>
+    <t>Fibonacci numbers</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Recursion (in ms)</t>
+  </si>
+  <si>
+    <t>Every number (in ms)</t>
+  </si>
+  <si>
+    <t>Sieve (in ms)</t>
+  </si>
+  <si>
+    <t>Recursion (count operations)</t>
+  </si>
+  <si>
+    <t>Sum of subarray</t>
+  </si>
+  <si>
+    <t>Hard (in ms)</t>
+  </si>
+  <si>
+    <t>Hard (count operations)</t>
+  </si>
+  <si>
+    <t>Medium (in ms)</t>
+  </si>
+  <si>
+    <t>Medium (count operations)</t>
+  </si>
+  <si>
+    <t>Easy (in ms)</t>
+  </si>
+  <si>
+    <t>Easy (count operations)</t>
+  </si>
+  <si>
+    <t>Fields (in ms)</t>
+  </si>
+  <si>
+    <t>Fields (count operations)</t>
+  </si>
+  <si>
+    <t>Every number (count operations)</t>
+  </si>
+  <si>
+    <t>Sieve (count operations)</t>
+  </si>
+  <si>
+    <t>GCD</t>
+  </si>
+  <si>
+    <t>Division (in ms)</t>
+  </si>
+  <si>
+    <t>Division (count operations)</t>
+  </si>
+  <si>
+    <t>EuclidAlgRec (in ms)</t>
+  </si>
+  <si>
+    <t>EuclidAlgRec (count operations)</t>
+  </si>
+  <si>
+    <t>Prime numbers</t>
+  </si>
+  <si>
+    <t>Divider</t>
+  </si>
+  <si>
+    <t>Divident</t>
+  </si>
+  <si>
+    <t>Enumeration (in ms)</t>
+  </si>
+  <si>
+    <t>Enumeration (count operations)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -47,8 +144,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -56,6 +171,2827 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Вычисление чисел Фибоначчи</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> (время)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recursion (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fields (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="119911168"/>
+        <c:axId val="132456448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="119911168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Порядковый номер</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132456448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132456448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119911168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Вычисление чисел Фибоначчи </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>(операции)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recursion (count operations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2692537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29860703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>331160281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3672623805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40730022147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fields (count operations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="98871168"/>
+        <c:axId val="98877440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="98871168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Порядковый номер</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98877440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98877440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98871168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Вычисление простых</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> чисел(время)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Every number (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$19:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13959</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16623</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sieve (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="98887552"/>
+        <c:axId val="98889728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="98887552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Порядковый номер</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98889728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98889728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98887552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Вычисление простых чисел</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>(операции)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Every number (count operations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99208724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>283891510</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>525149948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>812707408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1140118598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1503622909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1900076549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2326982058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2782731045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3265616245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sieve (count operations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4084393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9814708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14988115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20234263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25530680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30870983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36244867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41647027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47076679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52529971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="99035008"/>
+        <c:axId val="99037184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99035008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Порядковый номер</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99037184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99037184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99035008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Наибольший общий делитель</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>(время)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Division (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>165580141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267914296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433494437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>701408733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1134903170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1836311903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2971215073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4807526976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7778742049</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12586269025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enumeration (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$29:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EuclidAlgRec (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$31:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="99060352"/>
+        <c:axId val="99066624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99060352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Порядковый номер</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99066624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99066624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99060352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Наибольший общий делитель(операции)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Division (count operations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>165580141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267914296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433494437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>701408733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1134903170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1836311903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2971215073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4807526976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7778742049</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12586269025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enumeration (count operations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>165580141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267914296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433494437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>701408733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1134903170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1836311903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2971215073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4807526976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7778742049</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12586269025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$30:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>102334155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165580141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>267914296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>433494437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>701408733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1134903170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1836311903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2971215073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4807526976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7778742049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EuclidAlgRec (count operations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>165580141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267914296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433494437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>701408733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1134903170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1836311903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2971215073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4807526976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7778742049</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12586269025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$32:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="99081600"/>
+        <c:axId val="111465984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99081600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Порядковый номер</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111465984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111465984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99081600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Вычисление суммы подмассивов(время)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hard (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Easy (in ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="124199296"/>
+        <c:axId val="124201216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124199296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Порядковый номер</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124201216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124201216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124199296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Вычисление суммы подмассивов(операции)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hard (count operations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4499950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35999900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121499850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287999800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>562499750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>971999700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1543499650</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2303999600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3280499550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4499999500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium (count operations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1125750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1620900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2206050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2881200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3646350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4501500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Easy (count operations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$15:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="124269696"/>
+        <c:axId val="124271616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124269696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Порядковый номер</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124271616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124271616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124269696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,42 +3279,2070 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C26"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="26" spans="3:3">
-      <c r="C26">
-        <v>0</v>
+    <row r="1" spans="1:28">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>35</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>45</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>73</v>
+      </c>
+      <c r="J3" s="1">
+        <v>830</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9270</v>
+      </c>
+      <c r="L3" s="1">
+        <v>106455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>177</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1973</v>
+      </c>
+      <c r="F4" s="2">
+        <v>21891</v>
+      </c>
+      <c r="G4" s="2">
+        <v>242785</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2692537</v>
+      </c>
+      <c r="I4" s="2">
+        <v>29860703</v>
+      </c>
+      <c r="J4" s="2">
+        <v>331160281</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3672623805</v>
+      </c>
+      <c r="L4" s="2">
+        <v>40730022147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2">
+        <v>50</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="2">
+        <v>300</v>
+      </c>
+      <c r="D9" s="2">
+        <v>600</v>
+      </c>
+      <c r="E9" s="2">
+        <v>900</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2400</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2700</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2">
+        <v>249</v>
+      </c>
+      <c r="F10" s="2">
+        <v>592</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1146</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2006</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3188</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4707</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6744</v>
+      </c>
+      <c r="L10" s="2">
+        <v>11896</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="2">
+        <v>4499950</v>
+      </c>
+      <c r="D11" s="2">
+        <v>35999900</v>
+      </c>
+      <c r="E11" s="2">
+        <v>121499850</v>
+      </c>
+      <c r="F11" s="2">
+        <v>287999800</v>
+      </c>
+      <c r="G11" s="2">
+        <v>562499750</v>
+      </c>
+      <c r="H11" s="2">
+        <v>971999700</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1543499650</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2303999600</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3280499550</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4499999500</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6</v>
+      </c>
+      <c r="K12" s="2">
+        <v>7</v>
+      </c>
+      <c r="L12" s="2">
+        <v>9</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="2">
+        <v>45150</v>
+      </c>
+      <c r="D13" s="2">
+        <v>180300</v>
+      </c>
+      <c r="E13" s="2">
+        <v>405450</v>
+      </c>
+      <c r="F13" s="2">
+        <v>720600</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1125750</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1620900</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2206050</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2881200</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3646350</v>
+      </c>
+      <c r="L13" s="2">
+        <v>4501500</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2">
+        <v>300</v>
+      </c>
+      <c r="D15" s="2">
+        <v>600</v>
+      </c>
+      <c r="E15" s="2">
+        <v>900</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2100</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2400</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2700</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D18" s="6">
+        <v>200000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>400000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>600000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>700000</v>
+      </c>
+      <c r="J18" s="2">
+        <v>800000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>900000</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="2">
+        <v>591</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2312</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4468</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5488</v>
+      </c>
+      <c r="G19" s="2">
+        <v>6888</v>
+      </c>
+      <c r="H19" s="2">
+        <v>9068</v>
+      </c>
+      <c r="I19" s="2">
+        <v>11398</v>
+      </c>
+      <c r="J19" s="2">
+        <v>13959</v>
+      </c>
+      <c r="K19" s="2">
+        <v>16623</v>
+      </c>
+      <c r="L19" s="2">
+        <v>19602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="2">
+        <v>99208724</v>
+      </c>
+      <c r="D20" s="2">
+        <v>283891510</v>
+      </c>
+      <c r="E20" s="2">
+        <v>525149948</v>
+      </c>
+      <c r="F20" s="2">
+        <v>812707408</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1140118598</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1503622909</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1900076549</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2326982058</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2782731045</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3265616245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2">
+        <v>69</v>
+      </c>
+      <c r="G21" s="2">
+        <v>95</v>
+      </c>
+      <c r="H21" s="2">
+        <v>118</v>
+      </c>
+      <c r="I21" s="2">
+        <v>131</v>
+      </c>
+      <c r="J21" s="2">
+        <v>153</v>
+      </c>
+      <c r="K21" s="2">
+        <v>179</v>
+      </c>
+      <c r="L21" s="2">
+        <v>196</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="2">
+        <v>4084393</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9814708</v>
+      </c>
+      <c r="E22" s="2">
+        <v>14988115</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20234263</v>
+      </c>
+      <c r="G22" s="2">
+        <v>25530680</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30870983</v>
+      </c>
+      <c r="I22" s="2">
+        <v>36244867</v>
+      </c>
+      <c r="J22" s="2">
+        <v>41647027</v>
+      </c>
+      <c r="K22" s="2">
+        <v>47076679</v>
+      </c>
+      <c r="L22" s="2">
+        <v>52529971</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="4"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" s="7" customFormat="1">
+      <c r="A25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8">
+        <v>165580141</v>
+      </c>
+      <c r="D25" s="8">
+        <v>267914296</v>
+      </c>
+      <c r="E25" s="8">
+        <v>433494437</v>
+      </c>
+      <c r="F25" s="8">
+        <v>701408733</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1134903170</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1836311903</v>
+      </c>
+      <c r="I25" s="8">
+        <v>2971215073</v>
+      </c>
+      <c r="J25" s="8">
+        <v>4807526976</v>
+      </c>
+      <c r="K25" s="8">
+        <v>7778742049</v>
+      </c>
+      <c r="L25" s="8">
+        <v>12586269025</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" s="7" customFormat="1">
+      <c r="A26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="8">
+        <v>102334155</v>
+      </c>
+      <c r="D26" s="8">
+        <v>165580141</v>
+      </c>
+      <c r="E26" s="8">
+        <v>267914296</v>
+      </c>
+      <c r="F26" s="8">
+        <v>433494437</v>
+      </c>
+      <c r="G26" s="8">
+        <v>701408733</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1134903170</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1836311903</v>
+      </c>
+      <c r="J26" s="8">
+        <v>2971215073</v>
+      </c>
+      <c r="K26" s="8">
+        <v>4807526976</v>
+      </c>
+      <c r="L26" s="8">
+        <v>7778742049</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="2">
+        <v>39</v>
+      </c>
+      <c r="D28" s="2">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2">
+        <v>42</v>
+      </c>
+      <c r="G28" s="2">
+        <v>43</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44</v>
+      </c>
+      <c r="I28" s="2">
+        <v>45</v>
+      </c>
+      <c r="J28" s="2">
+        <v>46</v>
+      </c>
+      <c r="K28" s="2">
+        <v>47</v>
+      </c>
+      <c r="L28" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="2">
+        <v>440</v>
+      </c>
+      <c r="D29" s="2">
+        <v>698</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1174</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1865</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3139</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4833</v>
+      </c>
+      <c r="I29" s="2">
+        <v>8007</v>
+      </c>
+      <c r="J29" s="2">
+        <v>13049</v>
+      </c>
+      <c r="K29" s="2">
+        <v>20551</v>
+      </c>
+      <c r="L29" s="2">
+        <v>33706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="2">
+        <v>102334155</v>
+      </c>
+      <c r="D30" s="2">
+        <v>165580141</v>
+      </c>
+      <c r="E30" s="2">
+        <v>267914296</v>
+      </c>
+      <c r="F30" s="2">
+        <v>433494437</v>
+      </c>
+      <c r="G30" s="2">
+        <v>701408733</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1134903170</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1836311903</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2971215073</v>
+      </c>
+      <c r="K30" s="2">
+        <v>4807526976</v>
+      </c>
+      <c r="L30" s="2">
+        <v>7778742049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>44</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
+      </c>
+      <c r="H32">
+        <v>46</v>
+      </c>
+      <c r="I32">
+        <v>47</v>
+      </c>
+      <c r="J32">
+        <v>48</v>
+      </c>
+      <c r="K32">
+        <v>49</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="U64" sqref="U64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>